--- a/Code/Data/DAX30/Compared Returns/Manual Recurrence/input 30/DAX30_returns_compared_semester.xlsx
+++ b/Code/Data/DAX30/Compared Returns/Manual Recurrence/input 30/DAX30_returns_compared_semester.xlsx
@@ -501,13 +501,13 @@
         <v>0.09472088398319407</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1109549823966849</v>
+        <v>0.0886444015517949</v>
       </c>
       <c r="H2" t="n">
-        <v>17.13887976000221</v>
+        <v>-6.415145399695909</v>
       </c>
       <c r="I2" t="n">
-        <v>28.10975431713193</v>
+        <v>-15.2366315985584</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.06609390632718209</v>
       </c>
       <c r="G3" t="n">
-        <v>0.08933503053600127</v>
+        <v>0.06874065249478947</v>
       </c>
       <c r="H3" t="n">
-        <v>35.16379270090277</v>
+        <v>4.004523737037561</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>0.009375267559595661</v>
       </c>
       <c r="G4" t="n">
-        <v>0.00767079610830574</v>
+        <v>0.003288705913968952</v>
       </c>
       <c r="H4" t="n">
-        <v>-18.1805099476375</v>
+        <v>-64.92147138133743</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>-0.01338981234153172</v>
       </c>
       <c r="G5" t="n">
-        <v>0.02765023288554477</v>
+        <v>0.008997070971942561</v>
       </c>
       <c r="H5" t="n">
-        <v>-306.5020194478822</v>
+        <v>167.1934060198587</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>-0.2211956880075068</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2190144173237844</v>
+        <v>-0.2316342529534376</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.9861271272378378</v>
+        <v>-4.719153903929869</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>-0.249875694316674</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1925101757889281</v>
+        <v>-0.2262178667003966</v>
       </c>
       <c r="H7" t="n">
-        <v>-22.95762246288952</v>
+        <v>9.467838671133507</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>-0.3702558697496981</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.3780024316048352</v>
+        <v>-0.3641012972977667</v>
       </c>
       <c r="H8" t="n">
-        <v>2.092218513746717</v>
+        <v>1.662248448915083</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>-0.3986343696712738</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.3703065264929728</v>
+        <v>-0.4015886391308283</v>
       </c>
       <c r="H9" t="n">
-        <v>-7.106221975205253</v>
+        <v>-0.7410975280407197</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>0.01620488826727209</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.06416738284277629</v>
+        <v>-0.05770561978316782</v>
       </c>
       <c r="H10" t="n">
-        <v>-495.9754722429699</v>
+        <v>-456.1000781456293</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>-0.01606586733002158</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1391922966507254</v>
+        <v>0.1140495497016929</v>
       </c>
       <c r="H11" t="n">
-        <v>-966.3851990774434</v>
+        <v>809.8872868729192</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>0.2271888010689149</v>
       </c>
       <c r="G12" t="n">
-        <v>0.242150181052476</v>
+        <v>0.2143321659924274</v>
       </c>
       <c r="H12" t="n">
-        <v>6.585439032720078</v>
+        <v>-5.659009165943698</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>0.2633405849776401</v>
       </c>
       <c r="G13" t="n">
-        <v>0.234664287181096</v>
+        <v>0.2808933758141552</v>
       </c>
       <c r="H13" t="n">
-        <v>-10.88943346844125</v>
+        <v>6.665433221394814</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>-0.009567272390893788</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.04866838671271664</v>
+        <v>-0.04638896380487877</v>
       </c>
       <c r="H14" t="n">
-        <v>408.6965722752875</v>
+        <v>-384.8713605042979</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>0.02018671694130859</v>
       </c>
       <c r="G15" t="n">
-        <v>0.02677132243999429</v>
+        <v>0.01633438544050347</v>
       </c>
       <c r="H15" t="n">
-        <v>32.6185061088931</v>
+        <v>-19.08349689553528</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>0.1179991053673963</v>
       </c>
       <c r="G16" t="n">
-        <v>0.135540234814099</v>
+        <v>0.1438630100107573</v>
       </c>
       <c r="H16" t="n">
-        <v>14.86547664246053</v>
+        <v>21.91872943683123</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>0.2188329224258184</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1665765715871963</v>
+        <v>0.1807597067886283</v>
       </c>
       <c r="H17" t="n">
-        <v>-23.87956540512607</v>
+        <v>-17.39830333349245</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>0.06046660347950181</v>
       </c>
       <c r="G18" t="n">
-        <v>0.05668147855641685</v>
+        <v>0.05838078500473245</v>
       </c>
       <c r="H18" t="n">
-        <v>-6.259860328301911</v>
+        <v>-3.449538017256835</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>0.09008930410788432</v>
       </c>
       <c r="G19" t="n">
-        <v>0.08571658106501845</v>
+        <v>0.067394658579482</v>
       </c>
       <c r="H19" t="n">
-        <v>-4.853764923779877</v>
+        <v>-25.19127631536024</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>-0.1455309749378724</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.1698409635960946</v>
+        <v>-0.1527120297921342</v>
       </c>
       <c r="H20" t="n">
-        <v>16.70433986208105</v>
+        <v>-4.934382427745987</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>-0.1998298937858519</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.1921421217685526</v>
+        <v>-0.1709671241885869</v>
       </c>
       <c r="H21" t="n">
-        <v>-3.847158136178513</v>
+        <v>14.44366958839294</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1163,10 +1163,10 @@
         <v>0.05438824257925616</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04182933031425062</v>
+        <v>0.07051987772539384</v>
       </c>
       <c r="H22" t="n">
-        <v>-23.09122646627958</v>
+        <v>29.66015149805618</v>
       </c>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -1196,10 +1196,10 @@
         <v>0.04084014519188762</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04773966497313991</v>
+        <v>0.02956814685209262</v>
       </c>
       <c r="H23" t="n">
-        <v>16.89396486921108</v>
+        <v>-27.60028958475407</v>
       </c>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -1229,10 +1229,10 @@
         <v>0.1157343230489467</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1017485557586177</v>
+        <v>0.1301955247480747</v>
       </c>
       <c r="H24" t="n">
-        <v>-12.08437300351607</v>
+        <v>12.49517111100397</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1262,10 +1262,10 @@
         <v>0.15207602857372</v>
       </c>
       <c r="G25" t="n">
-        <v>0.119201504951575</v>
+        <v>0.1343131301266305</v>
       </c>
       <c r="H25" t="n">
-        <v>-21.61716342178729</v>
+        <v>-11.68027506615141</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1295,10 +1295,10 @@
         <v>0.0528767867841862</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.02440658648569748</v>
+        <v>-0.00479430540158214</v>
       </c>
       <c r="H26" t="n">
-        <v>-146.1574690332672</v>
+        <v>-109.0669378628279</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1328,10 +1328,10 @@
         <v>0.05046680748257124</v>
       </c>
       <c r="G27" t="n">
-        <v>0.04398145420056535</v>
+        <v>0.03343570931646109</v>
       </c>
       <c r="H27" t="n">
-        <v>-12.85073022351496</v>
+        <v>-33.74712809402865</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1361,10 +1361,10 @@
         <v>0.1529110724585075</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1571906559160828</v>
+        <v>0.1470176520617906</v>
       </c>
       <c r="H28" t="n">
-        <v>2.798740070792834</v>
+        <v>-3.854148886645259</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1394,10 +1394,10 @@
         <v>0.1707030879345922</v>
       </c>
       <c r="G29" t="n">
-        <v>0.2011895141060664</v>
+        <v>0.2177131728358107</v>
       </c>
       <c r="H29" t="n">
-        <v>17.8593290492528</v>
+        <v>27.53909461745133</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>
@@ -1427,10 +1427,10 @@
         <v>0.01956608687570464</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03219186172491109</v>
+        <v>0.009390998057026095</v>
       </c>
       <c r="H30" t="n">
-        <v>64.52887043491549</v>
+        <v>-52.00369845701253</v>
       </c>
       <c r="I30" t="inlineStr"/>
     </row>
@@ -1460,10 +1460,10 @@
         <v>0.009704970602210089</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05619126172602187</v>
+        <v>0.05560221833922227</v>
       </c>
       <c r="H31" t="n">
-        <v>478.9946619026911</v>
+        <v>472.9251598820929</v>
       </c>
       <c r="I31" t="inlineStr"/>
     </row>
@@ -1493,10 +1493,10 @@
         <v>0.03729327229807801</v>
       </c>
       <c r="G32" t="n">
-        <v>0.005589712583486022</v>
+        <v>0.002485560239313358</v>
       </c>
       <c r="H32" t="n">
-        <v>-85.0114719384008</v>
+        <v>-93.33509749574468</v>
       </c>
       <c r="I32" t="inlineStr"/>
     </row>
@@ -1526,10 +1526,10 @@
         <v>0.02610363887137964</v>
       </c>
       <c r="G33" t="n">
-        <v>0.01637742691335304</v>
+        <v>0.01640260904322053</v>
       </c>
       <c r="H33" t="n">
-        <v>-37.25998511529572</v>
+        <v>-37.16351530895351</v>
       </c>
       <c r="I33" t="inlineStr"/>
     </row>
@@ -1559,10 +1559,10 @@
         <v>0.1279680086290383</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1092208485742319</v>
+        <v>0.1085003627584462</v>
       </c>
       <c r="H34" t="n">
-        <v>-14.64988027527399</v>
+        <v>-15.21290053596608</v>
       </c>
       <c r="I34" t="inlineStr"/>
     </row>
@@ -1592,10 +1592,10 @@
         <v>0.1286605930521383</v>
       </c>
       <c r="G35" t="n">
-        <v>0.1551200330521932</v>
+        <v>0.1342981806298475</v>
       </c>
       <c r="H35" t="n">
-        <v>20.56530237609934</v>
+        <v>4.381751586847275</v>
       </c>
       <c r="I35" t="inlineStr"/>
     </row>
@@ -1625,10 +1625,10 @@
         <v>0.01503188746380182</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.04164068111685074</v>
+        <v>-0.06301702730100128</v>
       </c>
       <c r="H36" t="n">
-        <v>-377.0156523399032</v>
+        <v>-519.2223195706603</v>
       </c>
       <c r="I36" t="inlineStr"/>
     </row>
@@ -1658,10 +1658,10 @@
         <v>0.01531448840280134</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.02533117212791976</v>
+        <v>-0.06813582082890965</v>
       </c>
       <c r="H37" t="n">
-        <v>-265.4065840246166</v>
+        <v>-544.9108519775704</v>
       </c>
       <c r="I37" t="inlineStr"/>
     </row>
@@ -1691,10 +1691,10 @@
         <v>-0.002042413588276078</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.05447285520215903</v>
+        <v>-0.043818990756388</v>
       </c>
       <c r="H38" t="n">
-        <v>2567.082490776878</v>
+        <v>-2045.451391819906</v>
       </c>
       <c r="I38" t="inlineStr"/>
     </row>
@@ -1724,10 +1724,10 @@
         <v>-0.03340921239761406</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.04759015398850831</v>
+        <v>-0.0006388819391132361</v>
       </c>
       <c r="H39" t="n">
-        <v>42.44620143127646</v>
+        <v>98.0877072721449</v>
       </c>
       <c r="I39" t="inlineStr"/>
     </row>
@@ -1757,10 +1757,10 @@
         <v>0.147548992070951</v>
       </c>
       <c r="G40" t="n">
-        <v>0.135417181495675</v>
+        <v>0.1540609275574361</v>
       </c>
       <c r="H40" t="n">
-        <v>-8.222225313096184</v>
+        <v>4.413405605206536</v>
       </c>
       <c r="I40" t="inlineStr"/>
     </row>
@@ -1790,10 +1790,10 @@
         <v>0.1613992061073214</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1119550428278112</v>
+        <v>0.1261357498004187</v>
       </c>
       <c r="H41" t="n">
-        <v>-30.63470042512638</v>
+        <v>-21.84859340847964</v>
       </c>
       <c r="I41" t="inlineStr"/>
     </row>
@@ -1823,10 +1823,10 @@
         <v>0.06456490419750059</v>
       </c>
       <c r="G42" t="n">
-        <v>0.06191748817930243</v>
+        <v>0.0233380487336705</v>
       </c>
       <c r="H42" t="n">
-        <v>-4.100394867929891</v>
+        <v>-63.85335187320862</v>
       </c>
       <c r="I42" t="inlineStr"/>
     </row>
@@ -1856,10 +1856,10 @@
         <v>0.03476052319325828</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02728013239878701</v>
+        <v>0.06301167152618659</v>
       </c>
       <c r="H43" t="n">
-        <v>-21.51978769963415</v>
+        <v>81.27365683151612</v>
       </c>
       <c r="I43" t="inlineStr"/>
     </row>
@@ -1889,10 +1889,10 @@
         <v>0.01411278266930669</v>
       </c>
       <c r="G44" t="n">
-        <v>0.009335007861762468</v>
+        <v>0.02617031558141085</v>
       </c>
       <c r="H44" t="n">
-        <v>-33.85423640041739</v>
+        <v>85.43696303300688</v>
       </c>
       <c r="I44" t="inlineStr"/>
     </row>
@@ -1922,10 +1922,10 @@
         <v>0.04105803848404692</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.007497540821810538</v>
+        <v>-0.01949309551712053</v>
       </c>
       <c r="H45" t="n">
-        <v>-118.2608353896977</v>
+        <v>-147.476928360069</v>
       </c>
       <c r="I45" t="inlineStr"/>
     </row>
@@ -1955,10 +1955,10 @@
         <v>-0.06581986401260984</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.06779691111732306</v>
+        <v>-0.05864209085215774</v>
       </c>
       <c r="H46" t="n">
-        <v>3.00372407991371</v>
+        <v>10.9051777425079</v>
       </c>
       <c r="I46" t="inlineStr"/>
     </row>
@@ -1988,10 +1988,10 @@
         <v>-0.041309702810476</v>
       </c>
       <c r="G47" t="n">
-        <v>-0.05718043084001539</v>
+        <v>-0.02481344624925357</v>
       </c>
       <c r="H47" t="n">
-        <v>38.41888696791743</v>
+        <v>39.93312814886443</v>
       </c>
       <c r="I47" t="inlineStr"/>
     </row>
@@ -2021,10 +2021,10 @@
         <v>-0.1259754094228709</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.1035227351567531</v>
+        <v>-0.1754285798906397</v>
       </c>
       <c r="H48" t="n">
-        <v>-17.82306115850693</v>
+        <v>-39.2562093620714</v>
       </c>
       <c r="I48" t="inlineStr"/>
     </row>
@@ -2054,10 +2054,10 @@
         <v>-0.1974814065859856</v>
       </c>
       <c r="G49" t="n">
-        <v>-0.155961476317607</v>
+        <v>-0.1097737721924263</v>
       </c>
       <c r="H49" t="n">
-        <v>-21.02472885228329</v>
+        <v>44.41311002885247</v>
       </c>
       <c r="I49" t="inlineStr"/>
     </row>
@@ -2087,10 +2087,10 @@
         <v>0.1088736477750334</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1019321205780994</v>
+        <v>0.1095416054381532</v>
       </c>
       <c r="H50" t="n">
-        <v>-6.37576432754172</v>
+        <v>0.6135163804743632</v>
       </c>
       <c r="I50" t="inlineStr"/>
     </row>
@@ -2120,10 +2120,10 @@
         <v>0.1002708283321516</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1559889301268501</v>
+        <v>0.1544880758584554</v>
       </c>
       <c r="H51" t="n">
-        <v>55.56760896611904</v>
+        <v>54.07080845757724</v>
       </c>
       <c r="I51" t="inlineStr"/>
     </row>
@@ -2153,10 +2153,10 @@
         <v>0.05961905326882879</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0602309718023838</v>
+        <v>0.05169947435970361</v>
       </c>
       <c r="H52" t="n">
-        <v>1.02638082962472</v>
+        <v>-13.28363748651784</v>
       </c>
       <c r="I52" t="inlineStr"/>
     </row>
@@ -2186,10 +2186,10 @@
         <v>0.06754268044434918</v>
       </c>
       <c r="G53" t="n">
-        <v>0.08146615098515916</v>
+        <v>0.08215057575192232</v>
       </c>
       <c r="H53" t="n">
-        <v>20.61432926441531</v>
+        <v>21.62765115549287</v>
       </c>
       <c r="I53" t="inlineStr"/>
     </row>
@@ -2219,10 +2219,10 @@
         <v>-0.06992058032982243</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.08012461448466221</v>
+        <v>-0.09712432492805938</v>
       </c>
       <c r="H54" t="n">
-        <v>14.59374923192331</v>
+        <v>-38.90663445571267</v>
       </c>
       <c r="I54" t="inlineStr"/>
     </row>
@@ -2252,10 +2252,10 @@
         <v>-0.07723620257289701</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.04279478247934315</v>
+        <v>-0.01329752380200852</v>
       </c>
       <c r="H55" t="n">
-        <v>-44.59232710340385</v>
+        <v>82.7833019244336</v>
       </c>
       <c r="I55" t="inlineStr"/>
     </row>
@@ -2285,10 +2285,10 @@
         <v>0.04582607359533745</v>
       </c>
       <c r="G56" t="n">
-        <v>0.06093451540959705</v>
+        <v>0.06330801553388377</v>
       </c>
       <c r="H56" t="n">
-        <v>32.9690951655016</v>
+        <v>38.14846127320192</v>
       </c>
       <c r="I56" t="inlineStr"/>
     </row>
@@ -2318,10 +2318,10 @@
         <v>0.005170277811757367</v>
       </c>
       <c r="G57" t="n">
-        <v>0.04820215018541073</v>
+        <v>0.09896715712799001</v>
       </c>
       <c r="H57" t="n">
-        <v>832.2932333693479</v>
+        <v>1814.155500560061</v>
       </c>
       <c r="I57" t="inlineStr"/>
     </row>

--- a/Code/Data/DAX30/Compared Returns/Manual Recurrence/input 30/DAX30_returns_compared_semester.xlsx
+++ b/Code/Data/DAX30/Compared Returns/Manual Recurrence/input 30/DAX30_returns_compared_semester.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -501,13 +501,13 @@
         <v>0.09472088398319407</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0886444015517949</v>
+        <v>0.1071440481298471</v>
       </c>
       <c r="H2" t="n">
-        <v>-6.415145399695909</v>
+        <v>13.11554920545</v>
       </c>
       <c r="I2" t="n">
-        <v>-15.2366315985584</v>
+        <v>10.96991618690094</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.06609390632718209</v>
       </c>
       <c r="G3" t="n">
-        <v>0.06874065249478947</v>
+        <v>0.09749306358327187</v>
       </c>
       <c r="H3" t="n">
-        <v>4.004523737037561</v>
+        <v>47.50688679324799</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>0.009375267559595661</v>
       </c>
       <c r="G4" t="n">
-        <v>0.003288705913968952</v>
+        <v>0.01034666405895339</v>
       </c>
       <c r="H4" t="n">
-        <v>-64.92147138133743</v>
+        <v>10.36126695246682</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>-0.01338981234153172</v>
       </c>
       <c r="G5" t="n">
-        <v>0.008997070971942561</v>
+        <v>0.04456145850098477</v>
       </c>
       <c r="H5" t="n">
-        <v>167.1934060198587</v>
+        <v>432.8012175552805</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>-0.2211956880075068</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2316342529534376</v>
+        <v>-0.2241164520860654</v>
       </c>
       <c r="H6" t="n">
-        <v>-4.719153903929869</v>
+        <v>-1.320443497279872</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>-0.249875694316674</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2262178667003966</v>
+        <v>-0.2084579080731468</v>
       </c>
       <c r="H7" t="n">
-        <v>9.467838671133507</v>
+        <v>16.57535614129695</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>-0.3702558697496981</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.3641012972977667</v>
+        <v>-0.3561977129110726</v>
       </c>
       <c r="H8" t="n">
-        <v>1.662248448915083</v>
+        <v>3.796876157055699</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>-0.3986343696712738</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.4015886391308283</v>
+        <v>-0.3814893162140143</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.7410975280407197</v>
+        <v>4.300947123901501</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>0.01620488826727209</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.05770561978316782</v>
+        <v>-0.04162910228201853</v>
       </c>
       <c r="H10" t="n">
-        <v>-456.1000781456293</v>
+        <v>-356.8922512480014</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>-0.01606586733002158</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1140495497016929</v>
+        <v>0.102816102469102</v>
       </c>
       <c r="H11" t="n">
-        <v>809.8872868729192</v>
+        <v>739.966086841599</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>0.2271888010689149</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2143321659924274</v>
+        <v>0.2387273641831133</v>
       </c>
       <c r="H12" t="n">
-        <v>-5.659009165943698</v>
+        <v>5.078843261599995</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>0.2633405849776401</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2808933758141552</v>
+        <v>0.3245399048601543</v>
       </c>
       <c r="H13" t="n">
-        <v>6.665433221394814</v>
+        <v>23.23960808688511</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>-0.009567272390893788</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.04638896380487877</v>
+        <v>-0.03503354394610106</v>
       </c>
       <c r="H14" t="n">
-        <v>-384.8713605042979</v>
+        <v>-266.181106952137</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>0.02018671694130859</v>
       </c>
       <c r="G15" t="n">
-        <v>0.01633438544050347</v>
+        <v>0.0144250802314894</v>
       </c>
       <c r="H15" t="n">
-        <v>-19.08349689553528</v>
+        <v>-28.54172239384309</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>0.1179991053673963</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1438630100107573</v>
+        <v>0.1412727757540835</v>
       </c>
       <c r="H16" t="n">
-        <v>21.91872943683123</v>
+        <v>19.72359901731749</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>0.2188329224258184</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1807597067886283</v>
+        <v>0.1947365578180325</v>
       </c>
       <c r="H17" t="n">
-        <v>-17.39830333349245</v>
+        <v>-11.01130686400912</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>0.06046660347950181</v>
       </c>
       <c r="G18" t="n">
-        <v>0.05838078500473245</v>
+        <v>0.04517901313094688</v>
       </c>
       <c r="H18" t="n">
-        <v>-3.449538017256835</v>
+        <v>-25.2827006460474</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>0.09008930410788432</v>
       </c>
       <c r="G19" t="n">
-        <v>0.067394658579482</v>
+        <v>0.05748703044335348</v>
       </c>
       <c r="H19" t="n">
-        <v>-25.19127631536024</v>
+        <v>-36.1888394936304</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>-0.1455309749378724</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.1527120297921342</v>
+        <v>-0.1482516631290654</v>
       </c>
       <c r="H20" t="n">
-        <v>-4.934382427745987</v>
+        <v>-1.86949080245939</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>-0.1998298937858519</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.1709671241885869</v>
+        <v>-0.140465427323711</v>
       </c>
       <c r="H21" t="n">
-        <v>14.44366958839294</v>
+        <v>29.70750038318037</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1163,10 +1163,10 @@
         <v>0.05438824257925616</v>
       </c>
       <c r="G22" t="n">
-        <v>0.07051987772539384</v>
+        <v>0.04791281145783299</v>
       </c>
       <c r="H22" t="n">
-        <v>29.66015149805618</v>
+        <v>-11.90593925146042</v>
       </c>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -1196,10 +1196,10 @@
         <v>0.04084014519188762</v>
       </c>
       <c r="G23" t="n">
-        <v>0.02956814685209262</v>
+        <v>0.03705856480641802</v>
       </c>
       <c r="H23" t="n">
-        <v>-27.60028958475407</v>
+        <v>-9.259468514868953</v>
       </c>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -1229,10 +1229,10 @@
         <v>0.1157343230489467</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1301955247480747</v>
+        <v>0.1387876099029383</v>
       </c>
       <c r="H24" t="n">
-        <v>12.49517111100397</v>
+        <v>19.91914433563659</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1262,10 +1262,10 @@
         <v>0.15207602857372</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1343131301266305</v>
+        <v>0.1495183491146239</v>
       </c>
       <c r="H25" t="n">
-        <v>-11.68027506615141</v>
+        <v>-1.681842617198704</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1295,10 +1295,10 @@
         <v>0.0528767867841862</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.00479430540158214</v>
+        <v>-0.0167802859385372</v>
       </c>
       <c r="H26" t="n">
-        <v>-109.0669378628279</v>
+        <v>-131.7346929703294</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1328,10 +1328,10 @@
         <v>0.05046680748257124</v>
       </c>
       <c r="G27" t="n">
-        <v>0.03343570931646109</v>
+        <v>0.00713120981305596</v>
       </c>
       <c r="H27" t="n">
-        <v>-33.74712809402865</v>
+        <v>-85.86950479180057</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1361,10 +1361,10 @@
         <v>0.1529110724585075</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1470176520617906</v>
+        <v>0.1546322568177046</v>
       </c>
       <c r="H28" t="n">
-        <v>-3.854148886645259</v>
+        <v>1.12561133181781</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1394,10 +1394,10 @@
         <v>0.1707030879345922</v>
       </c>
       <c r="G29" t="n">
-        <v>0.2177131728358107</v>
+        <v>0.1829370678587904</v>
       </c>
       <c r="H29" t="n">
-        <v>27.53909461745133</v>
+        <v>7.166818170791295</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>
@@ -1427,10 +1427,10 @@
         <v>0.01956608687570464</v>
       </c>
       <c r="G30" t="n">
-        <v>0.009390998057026095</v>
+        <v>-3.00124910226448e-05</v>
       </c>
       <c r="H30" t="n">
-        <v>-52.00369845701253</v>
+        <v>-100.1533903596223</v>
       </c>
       <c r="I30" t="inlineStr"/>
     </row>
@@ -1460,10 +1460,10 @@
         <v>0.009704970602210089</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05560221833922227</v>
+        <v>0.0526065813519051</v>
       </c>
       <c r="H31" t="n">
-        <v>472.9251598820929</v>
+        <v>442.0581216384637</v>
       </c>
       <c r="I31" t="inlineStr"/>
     </row>
@@ -1493,10 +1493,10 @@
         <v>0.03729327229807801</v>
       </c>
       <c r="G32" t="n">
-        <v>0.002485560239313358</v>
+        <v>0.0274864649565908</v>
       </c>
       <c r="H32" t="n">
-        <v>-93.33509749574468</v>
+        <v>-26.29645171145957</v>
       </c>
       <c r="I32" t="inlineStr"/>
     </row>
@@ -1526,10 +1526,10 @@
         <v>0.02610363887137964</v>
       </c>
       <c r="G33" t="n">
-        <v>0.01640260904322053</v>
+        <v>0.01255556853970396</v>
       </c>
       <c r="H33" t="n">
-        <v>-37.16351530895351</v>
+        <v>-51.90107937989426</v>
       </c>
       <c r="I33" t="inlineStr"/>
     </row>
@@ -1559,10 +1559,10 @@
         <v>0.1279680086290383</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1085003627584462</v>
+        <v>0.1088406164671586</v>
       </c>
       <c r="H34" t="n">
-        <v>-15.21290053596608</v>
+        <v>-14.94701087154319</v>
       </c>
       <c r="I34" t="inlineStr"/>
     </row>
@@ -1592,10 +1592,10 @@
         <v>0.1286605930521383</v>
       </c>
       <c r="G35" t="n">
-        <v>0.1342981806298475</v>
+        <v>0.1506219526517972</v>
       </c>
       <c r="H35" t="n">
-        <v>4.381751586847275</v>
+        <v>17.06921993648769</v>
       </c>
       <c r="I35" t="inlineStr"/>
     </row>
@@ -1625,10 +1625,10 @@
         <v>0.01503188746380182</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.06301702730100128</v>
+        <v>-0.02386636681214747</v>
       </c>
       <c r="H36" t="n">
-        <v>-519.2223195706603</v>
+        <v>-258.7715905246091</v>
       </c>
       <c r="I36" t="inlineStr"/>
     </row>
@@ -1658,10 +1658,10 @@
         <v>0.01531448840280134</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.06813582082890965</v>
+        <v>-0.06969768590559097</v>
       </c>
       <c r="H37" t="n">
-        <v>-544.9108519775704</v>
+        <v>-555.1094628328675</v>
       </c>
       <c r="I37" t="inlineStr"/>
     </row>
@@ -1691,10 +1691,10 @@
         <v>-0.002042413588276078</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.043818990756388</v>
+        <v>-0.02613837875793051</v>
       </c>
       <c r="H38" t="n">
-        <v>-2045.451391819906</v>
+        <v>-1179.778929594417</v>
       </c>
       <c r="I38" t="inlineStr"/>
     </row>
@@ -1724,10 +1724,10 @@
         <v>-0.03340921239761406</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.0006388819391132361</v>
+        <v>-0.009700677248651304</v>
       </c>
       <c r="H39" t="n">
-        <v>98.0877072721449</v>
+        <v>70.96406484175579</v>
       </c>
       <c r="I39" t="inlineStr"/>
     </row>
@@ -1757,10 +1757,10 @@
         <v>0.147548992070951</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1540609275574361</v>
+        <v>0.1142724963390129</v>
       </c>
       <c r="H40" t="n">
-        <v>4.413405605206536</v>
+        <v>-22.55284517019041</v>
       </c>
       <c r="I40" t="inlineStr"/>
     </row>
@@ -1790,10 +1790,10 @@
         <v>0.1613992061073214</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1261357498004187</v>
+        <v>0.1125492283213453</v>
       </c>
       <c r="H41" t="n">
-        <v>-21.84859340847964</v>
+        <v>-30.26655394667407</v>
       </c>
       <c r="I41" t="inlineStr"/>
     </row>
@@ -1823,10 +1823,10 @@
         <v>0.06456490419750059</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0233380487336705</v>
+        <v>0.03782356034534425</v>
       </c>
       <c r="H42" t="n">
-        <v>-63.85335187320862</v>
+        <v>-41.41777051253108</v>
       </c>
       <c r="I42" t="inlineStr"/>
     </row>
@@ -1856,10 +1856,10 @@
         <v>0.03476052319325828</v>
       </c>
       <c r="G43" t="n">
-        <v>0.06301167152618659</v>
+        <v>0.06987325344147276</v>
       </c>
       <c r="H43" t="n">
-        <v>81.27365683151612</v>
+        <v>101.0132386471804</v>
       </c>
       <c r="I43" t="inlineStr"/>
     </row>
@@ -1889,10 +1889,10 @@
         <v>0.01411278266930669</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02617031558141085</v>
+        <v>0.02113111310401822</v>
       </c>
       <c r="H44" t="n">
-        <v>85.43696303300688</v>
+        <v>49.73030903377693</v>
       </c>
       <c r="I44" t="inlineStr"/>
     </row>
@@ -1922,10 +1922,10 @@
         <v>0.04105803848404692</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.01949309551712053</v>
+        <v>0.01823040605181612</v>
       </c>
       <c r="H45" t="n">
-        <v>-147.476928360069</v>
+        <v>-55.59844862316174</v>
       </c>
       <c r="I45" t="inlineStr"/>
     </row>
@@ -1955,10 +1955,10 @@
         <v>-0.06581986401260984</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.05864209085215774</v>
+        <v>-0.03897816130772801</v>
       </c>
       <c r="H46" t="n">
-        <v>10.9051777425079</v>
+        <v>40.78055022985077</v>
       </c>
       <c r="I46" t="inlineStr"/>
     </row>
@@ -1988,10 +1988,10 @@
         <v>-0.041309702810476</v>
       </c>
       <c r="G47" t="n">
-        <v>-0.02481344624925357</v>
+        <v>-0.02149700464790572</v>
       </c>
       <c r="H47" t="n">
-        <v>39.93312814886443</v>
+        <v>47.96136697828252</v>
       </c>
       <c r="I47" t="inlineStr"/>
     </row>
@@ -2021,10 +2021,10 @@
         <v>-0.1259754094228709</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.1754285798906397</v>
+        <v>-0.1447771925066553</v>
       </c>
       <c r="H48" t="n">
-        <v>-39.2562093620714</v>
+        <v>-14.92496287165941</v>
       </c>
       <c r="I48" t="inlineStr"/>
     </row>
@@ -2054,10 +2054,10 @@
         <v>-0.1974814065859856</v>
       </c>
       <c r="G49" t="n">
-        <v>-0.1097737721924263</v>
+        <v>-0.1528470071380833</v>
       </c>
       <c r="H49" t="n">
-        <v>44.41311002885247</v>
+        <v>22.60182374610947</v>
       </c>
       <c r="I49" t="inlineStr"/>
     </row>
@@ -2087,10 +2087,10 @@
         <v>0.1088736477750334</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1095416054381532</v>
+        <v>0.1053319682125969</v>
       </c>
       <c r="H50" t="n">
-        <v>0.6135163804743632</v>
+        <v>-3.253018186508006</v>
       </c>
       <c r="I50" t="inlineStr"/>
     </row>
@@ -2120,10 +2120,10 @@
         <v>0.1002708283321516</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1544880758584554</v>
+        <v>0.1747138661350466</v>
       </c>
       <c r="H51" t="n">
-        <v>54.07080845757724</v>
+        <v>74.24196951510076</v>
       </c>
       <c r="I51" t="inlineStr"/>
     </row>
@@ -2153,10 +2153,10 @@
         <v>0.05961905326882879</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05169947435970361</v>
+        <v>0.05643414876138974</v>
       </c>
       <c r="H52" t="n">
-        <v>-13.28363748651784</v>
+        <v>-5.342091718695986</v>
       </c>
       <c r="I52" t="inlineStr"/>
     </row>
@@ -2186,10 +2186,10 @@
         <v>0.06754268044434918</v>
       </c>
       <c r="G53" t="n">
-        <v>0.08215057575192232</v>
+        <v>0.075264696479983</v>
       </c>
       <c r="H53" t="n">
-        <v>21.62765115549287</v>
+        <v>11.43279476744526</v>
       </c>
       <c r="I53" t="inlineStr"/>
     </row>
@@ -2219,10 +2219,10 @@
         <v>-0.06992058032982243</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.09712432492805938</v>
+        <v>-0.0448042233425162</v>
       </c>
       <c r="H54" t="n">
-        <v>-38.90663445571267</v>
+        <v>35.92126505362204</v>
       </c>
       <c r="I54" t="inlineStr"/>
     </row>
@@ -2252,10 +2252,10 @@
         <v>-0.07723620257289701</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.01329752380200852</v>
+        <v>-0.03429888082898155</v>
       </c>
       <c r="H55" t="n">
-        <v>82.7833019244336</v>
+        <v>55.59222270591358</v>
       </c>
       <c r="I55" t="inlineStr"/>
     </row>
@@ -2285,10 +2285,10 @@
         <v>0.04582607359533745</v>
       </c>
       <c r="G56" t="n">
-        <v>0.06330801553388377</v>
+        <v>0.0822884497442096</v>
       </c>
       <c r="H56" t="n">
-        <v>38.14846127320192</v>
+        <v>79.56687817256505</v>
       </c>
       <c r="I56" t="inlineStr"/>
     </row>
@@ -2318,14 +2318,14 @@
         <v>0.005170277811757367</v>
       </c>
       <c r="G57" t="n">
-        <v>0.09896715712799001</v>
+        <v>0.08370933566470429</v>
       </c>
       <c r="H57" t="n">
-        <v>1814.155500560061</v>
+        <v>1519.049086189271</v>
       </c>
       <c r="I57" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>